--- a/Análisis de Señales/Datos/RR_response.xlsx
+++ b/Análisis de Señales/Datos/RR_response.xlsx
@@ -1,23 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\maestria-repo\Análisis de Datos\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAB800-CAFB-46B5-A97C-66B58E3D623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="28455" windowHeight="15075"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +76,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +128,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -132,6 +162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,517 +373,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CW105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.104242445659777</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1">
+        <f>SUM(A1:A10)</f>
+        <v>11.411057416568083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1507981546482091</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.1389589023993396</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1370551931736881</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.1580987702423238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.1601131323850264</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.1552320246319765</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.1222483137608361</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.1316545217634089</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.1526559579034961</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.107690319402548</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1076819658015733</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1188918564593082</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.1367246141777418</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.1680855753884249</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.149728607969472</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.1218301961603274</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.1204019989353411</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.1595250136162236</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.1638153196805499</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.1347261312721635</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.0821722964428897</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.0625282409627743</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.0440506684947151</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.069540520328033</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.0250263541776745</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.0322591188944781</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.97072901400078115</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.92945949052804189</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.96626502750884757</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.92657331804186016</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.97982824267648394</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.96332853602263202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.90027814721086552</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.85260996292504698</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.90711877930170814</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.91422898138692121</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.918838469457808</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.81915489914343287</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.85082328579327482</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.85688581575027134</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.86063397552431986</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.85769571583039106</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.84495912082259683</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.84724104550702906</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.80689434396417614</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.82296850869483884</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.77204057481248833</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.76210880448990515</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.8505107308569958</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.77746494398725452</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.80516847664529412</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.83879950485282717</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.75828232696471598</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.75632421260183991</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.76868184506426229</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.82547363228162096</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.76907476969589028</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.75530095949785847</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.74128242385193532</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.7640349093244323</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.76015181732706294</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.73425776219964056</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.76322074329374756</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.72753501938087872</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.77860354654811059</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.71707993253334268</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.77222757808482345</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.79286708938047157</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.73649145362424973</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.75688092471533241</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.76819815980061312</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.71664108181535979</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.75941989787264952</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.77336060002856699</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.73063846758806128</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.79164208245093615</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.80450740879217908</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.79153689641545577</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.75703309711809008</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.73388579184271407</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.7802544354441554</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.72890764969266209</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.80059659949387818</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.76655936886964404</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.76425309630430371</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.72120156858924167</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.71270934827682031</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.72895246402335812</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.78905166163230311</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.79408533856814911</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.77274063593647468</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.77510773482965445</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.72540304105518938</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.75985654819789705</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.78316181786046635</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.7423414383285023</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.80066871605426859</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.71070130379661478</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.73368049890041254</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A101">
+        <v>0.75262003936851096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.104242445659777</v>
+      </c>
+      <c r="B103">
+        <v>1.1507981546482091</v>
+      </c>
+      <c r="C103">
+        <v>1.1389589023993396</v>
+      </c>
+      <c r="D103">
+        <v>1.1370551931736881</v>
+      </c>
+      <c r="E103">
+        <v>1.1580987702423238</v>
+      </c>
+      <c r="F103">
+        <v>1.1601131323850264</v>
+      </c>
+      <c r="G103">
+        <v>1.1552320246319765</v>
+      </c>
+      <c r="H103">
+        <v>1.1222483137608361</v>
+      </c>
+      <c r="I103">
+        <v>1.1316545217634089</v>
+      </c>
+      <c r="J103">
+        <v>1.1526559579034961</v>
+      </c>
+      <c r="K103">
+        <v>1.107690319402548</v>
+      </c>
+      <c r="L103">
+        <v>1.1076819658015733</v>
+      </c>
+      <c r="M103">
+        <v>1.1188918564593082</v>
+      </c>
+      <c r="N103">
+        <v>1.1367246141777418</v>
+      </c>
+      <c r="O103">
+        <v>1.1680855753884249</v>
+      </c>
+      <c r="P103">
+        <v>1.149728607969472</v>
+      </c>
+      <c r="Q103">
+        <v>1.1218301961603274</v>
+      </c>
+      <c r="R103">
+        <v>1.1204019989353411</v>
+      </c>
+      <c r="S103">
+        <v>1.1595250136162236</v>
+      </c>
+      <c r="T103">
+        <v>1.1638153196805499</v>
+      </c>
+      <c r="U103">
+        <v>1.1347261312721635</v>
+      </c>
+      <c r="V103">
+        <v>1.0821722964428897</v>
+      </c>
+      <c r="W103">
+        <v>1.0625282409627743</v>
+      </c>
+      <c r="X103">
+        <v>1.0440506684947151</v>
+      </c>
+      <c r="Y103">
+        <v>1.069540520328033</v>
+      </c>
+      <c r="Z103">
+        <v>1.0250263541776745</v>
+      </c>
+      <c r="AA103">
+        <v>1.0322591188944781</v>
+      </c>
+      <c r="AB103">
+        <v>0.97072901400078115</v>
+      </c>
+      <c r="AC103">
+        <v>0.92945949052804189</v>
+      </c>
+      <c r="AD103">
+        <v>0.96626502750884757</v>
+      </c>
+      <c r="AE103">
+        <v>0.92657331804186016</v>
+      </c>
+      <c r="AF103">
+        <v>0.97982824267648394</v>
+      </c>
+      <c r="AG103">
+        <v>0.96332853602263202</v>
+      </c>
+      <c r="AH103">
+        <v>0.90027814721086552</v>
+      </c>
+      <c r="AI103">
+        <v>0.85260996292504698</v>
+      </c>
+      <c r="AJ103">
+        <v>0.90711877930170814</v>
+      </c>
+      <c r="AK103">
+        <v>0.91422898138692121</v>
+      </c>
+      <c r="AL103">
+        <v>0.918838469457808</v>
+      </c>
+      <c r="AM103">
+        <v>0.81915489914343287</v>
+      </c>
+      <c r="AN103">
+        <v>0.85082328579327482</v>
+      </c>
+      <c r="AO103">
+        <v>0.85688581575027134</v>
+      </c>
+      <c r="AP103">
+        <v>0.86063397552431986</v>
+      </c>
+      <c r="AQ103">
+        <v>0.85769571583039106</v>
+      </c>
+      <c r="AR103">
+        <v>0.84495912082259683</v>
+      </c>
+      <c r="AS103">
+        <v>0.84724104550702906</v>
+      </c>
+      <c r="AT103">
+        <v>0.80689434396417614</v>
+      </c>
+      <c r="AU103">
+        <v>0.82296850869483884</v>
+      </c>
+      <c r="AV103">
+        <v>0.77204057481248833</v>
+      </c>
+      <c r="AW103">
+        <v>0.76210880448990515</v>
+      </c>
+      <c r="AX103">
+        <v>0.8505107308569958</v>
+      </c>
+      <c r="AY103">
+        <v>0.77746494398725452</v>
+      </c>
+      <c r="AZ103">
+        <v>0.80516847664529412</v>
+      </c>
+      <c r="BA103">
+        <v>0.83879950485282717</v>
+      </c>
+      <c r="BB103">
+        <v>0.75828232696471598</v>
+      </c>
+      <c r="BC103">
+        <v>0.75632421260183991</v>
+      </c>
+      <c r="BD103">
+        <v>0.76868184506426229</v>
+      </c>
+      <c r="BE103">
+        <v>0.82547363228162096</v>
+      </c>
+      <c r="BF103">
+        <v>0.76907476969589028</v>
+      </c>
+      <c r="BG103">
+        <v>0.75530095949785847</v>
+      </c>
+      <c r="BH103">
+        <v>0.74128242385193532</v>
+      </c>
+      <c r="BI103">
+        <v>0.7640349093244323</v>
+      </c>
+      <c r="BJ103">
+        <v>0.76015181732706294</v>
+      </c>
+      <c r="BK103">
+        <v>0.73425776219964056</v>
+      </c>
+      <c r="BL103">
+        <v>0.76322074329374756</v>
+      </c>
+      <c r="BM103">
+        <v>0.72753501938087872</v>
+      </c>
+      <c r="BN103">
+        <v>0.77860354654811059</v>
+      </c>
+      <c r="BO103">
+        <v>0.71707993253334268</v>
+      </c>
+      <c r="BP103">
+        <v>0.77222757808482345</v>
+      </c>
+      <c r="BQ103">
+        <v>0.79286708938047157</v>
+      </c>
+      <c r="BR103">
+        <v>0.73649145362424973</v>
+      </c>
+      <c r="BS103">
+        <v>0.75688092471533241</v>
+      </c>
+      <c r="BT103">
+        <v>0.76819815980061312</v>
+      </c>
+      <c r="BU103">
+        <v>0.71664108181535979</v>
+      </c>
+      <c r="BV103">
+        <v>0.75941989787264952</v>
+      </c>
+      <c r="BW103">
+        <v>0.77336060002856699</v>
+      </c>
+      <c r="BX103">
+        <v>0.73063846758806128</v>
+      </c>
+      <c r="BY103">
+        <v>0.79164208245093615</v>
+      </c>
+      <c r="BZ103">
+        <v>0.80450740879217908</v>
+      </c>
+      <c r="CA103">
+        <v>0.79153689641545577</v>
+      </c>
+      <c r="CB103">
+        <v>0.75703309711809008</v>
+      </c>
+      <c r="CC103">
+        <v>0.73388579184271407</v>
+      </c>
+      <c r="CD103">
+        <v>0.7802544354441554</v>
+      </c>
+      <c r="CE103">
+        <v>0.72890764969266209</v>
+      </c>
+      <c r="CF103">
+        <v>0.80059659949387818</v>
+      </c>
+      <c r="CG103">
+        <v>0.76655936886964404</v>
+      </c>
+      <c r="CH103">
+        <v>0.76425309630430371</v>
+      </c>
+      <c r="CI103">
+        <v>0.72120156858924167</v>
+      </c>
+      <c r="CJ103">
+        <v>0.71270934827682031</v>
+      </c>
+      <c r="CK103">
+        <v>0.72895246402335812</v>
+      </c>
+      <c r="CL103">
+        <v>0.78905166163230311</v>
+      </c>
+      <c r="CM103">
+        <v>0.79408533856814911</v>
+      </c>
+      <c r="CN103">
+        <v>0.77274063593647468</v>
+      </c>
+      <c r="CO103">
+        <v>0.77510773482965445</v>
+      </c>
+      <c r="CP103">
+        <v>0.72540304105518938</v>
+      </c>
+      <c r="CQ103">
+        <v>0.75985654819789705</v>
+      </c>
+      <c r="CR103">
+        <v>0.78316181786046635</v>
+      </c>
+      <c r="CS103">
+        <v>0.7423414383285023</v>
+      </c>
+      <c r="CT103">
+        <v>0.80066871605426859</v>
+      </c>
+      <c r="CU103">
+        <v>0.71070130379661478</v>
+      </c>
+      <c r="CV103">
+        <v>0.73368049890041254</v>
+      </c>
+      <c r="CW103">
+        <v>0.75262003936851096</v>
+      </c>
+    </row>
+    <row r="105" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.107690319402548</v>
+      </c>
+      <c r="B105">
+        <v>1.1076819658015733</v>
+      </c>
+      <c r="C105">
+        <v>1.1188918564593082</v>
+      </c>
+      <c r="D105">
+        <v>1.1367246141777418</v>
+      </c>
+      <c r="E105">
+        <v>1.1680855753884249</v>
+      </c>
+      <c r="F105">
+        <v>1.149728607969472</v>
+      </c>
+      <c r="G105">
+        <v>1.1218301961603274</v>
+      </c>
+      <c r="H105">
+        <v>1.1204019989353411</v>
+      </c>
+      <c r="I105">
+        <v>1.1595250136162236</v>
+      </c>
+      <c r="J105">
+        <v>1.1638153196805499</v>
+      </c>
+      <c r="K105">
+        <v>1.1347261312721635</v>
+      </c>
+      <c r="L105">
+        <v>1.0821722964428897</v>
+      </c>
+      <c r="M105">
+        <v>1.0625282409627743</v>
+      </c>
+      <c r="N105">
+        <v>1.0440506684947151</v>
+      </c>
+      <c r="O105">
+        <v>1.069540520328033</v>
+      </c>
+      <c r="P105">
+        <v>1.0250263541776745</v>
+      </c>
+      <c r="Q105">
+        <v>1.0322591188944781</v>
+      </c>
+      <c r="R105">
+        <v>0.97072901400078115</v>
+      </c>
+      <c r="S105">
+        <v>0.92945949052804189</v>
+      </c>
+      <c r="T105">
+        <v>0.96626502750884757</v>
+      </c>
+      <c r="U105">
+        <v>0.92657331804186016</v>
+      </c>
+      <c r="V105">
+        <v>0.97982824267648394</v>
+      </c>
+      <c r="W105">
+        <v>0.96332853602263202</v>
+      </c>
+      <c r="X105">
+        <v>0.90027814721086552</v>
+      </c>
+      <c r="Y105">
+        <v>0.85260996292504698</v>
+      </c>
+      <c r="Z105">
+        <v>0.90711877930170814</v>
+      </c>
+      <c r="AA105">
+        <v>0.91422898138692121</v>
+      </c>
+      <c r="AB105">
+        <v>0.918838469457808</v>
+      </c>
+      <c r="AC105">
+        <v>0.81915489914343287</v>
+      </c>
+      <c r="AD105">
+        <v>0.85082328579327482</v>
+      </c>
+      <c r="AE105">
+        <v>0.85688581575027134</v>
+      </c>
+      <c r="AF105">
+        <v>0.86063397552431986</v>
+      </c>
+      <c r="AG105">
+        <v>0.85769571583039106</v>
+      </c>
+      <c r="AH105">
+        <v>0.84495912082259683</v>
+      </c>
+      <c r="AI105">
+        <v>0.84724104550702906</v>
+      </c>
+      <c r="AJ105">
+        <v>0.80689434396417614</v>
+      </c>
+      <c r="AK105">
+        <v>0.82296850869483884</v>
+      </c>
+      <c r="AL105">
+        <v>0.77204057481248833</v>
+      </c>
+      <c r="AM105">
+        <v>0.76210880448990515</v>
+      </c>
+      <c r="AN105">
+        <v>0.8505107308569958</v>
+      </c>
+      <c r="AO105">
+        <v>0.77746494398725452</v>
+      </c>
+      <c r="AP105">
+        <v>0.80516847664529412</v>
+      </c>
+      <c r="AQ105">
+        <v>0.83879950485282717</v>
+      </c>
+      <c r="AR105">
+        <v>0.75828232696471598</v>
+      </c>
+      <c r="AS105">
+        <v>0.75632421260183991</v>
+      </c>
+      <c r="AT105">
+        <v>0.76868184506426229</v>
+      </c>
+      <c r="AU105">
+        <v>0.82547363228162096</v>
+      </c>
+      <c r="AV105">
+        <v>0.76907476969589028</v>
+      </c>
+      <c r="AW105">
+        <v>0.75530095949785847</v>
+      </c>
+      <c r="AX105">
+        <v>0.74128242385193532</v>
+      </c>
+      <c r="AY105">
+        <v>0.7640349093244323</v>
+      </c>
+      <c r="AZ105">
+        <v>0.76015181732706294</v>
+      </c>
+      <c r="BA105">
+        <v>0.73425776219964056</v>
+      </c>
+      <c r="BB105">
+        <v>0.76322074329374756</v>
+      </c>
+      <c r="BC105">
+        <v>0.72753501938087872</v>
+      </c>
+      <c r="BD105">
+        <v>0.77860354654811059</v>
+      </c>
+      <c r="BE105">
+        <v>0.71707993253334268</v>
+      </c>
+      <c r="BF105">
+        <v>0.77222757808482345</v>
+      </c>
+      <c r="BG105">
+        <v>0.79286708938047157</v>
+      </c>
+      <c r="BH105">
+        <v>0.73649145362424973</v>
+      </c>
+      <c r="BI105">
+        <v>0.75688092471533241</v>
+      </c>
+      <c r="BJ105">
+        <v>0.76819815980061312</v>
+      </c>
+      <c r="BK105">
+        <v>0.71664108181535979</v>
+      </c>
+      <c r="BL105">
+        <v>0.75941989787264952</v>
+      </c>
+      <c r="BM105">
+        <v>0.77336060002856699</v>
+      </c>
+      <c r="BN105">
+        <v>0.73063846758806128</v>
+      </c>
+      <c r="BO105">
+        <v>0.79164208245093615</v>
+      </c>
+      <c r="BP105">
+        <v>0.80450740879217908</v>
+      </c>
+      <c r="BQ105">
+        <v>0.79153689641545577</v>
+      </c>
+      <c r="BR105">
+        <v>0.75703309711809008</v>
+      </c>
+      <c r="BS105">
+        <v>0.73388579184271407</v>
+      </c>
+      <c r="BT105">
+        <v>0.7802544354441554</v>
+      </c>
+      <c r="BU105">
+        <v>0.72890764969266209</v>
+      </c>
+      <c r="BV105">
+        <v>0.80059659949387818</v>
+      </c>
+      <c r="BW105">
+        <v>0.76655936886964404</v>
+      </c>
+      <c r="BX105">
+        <v>0.76425309630430371</v>
+      </c>
+      <c r="BY105">
+        <v>0.72120156858924167</v>
+      </c>
+      <c r="BZ105">
+        <v>0.71270934827682031</v>
+      </c>
+      <c r="CA105">
+        <v>0.72895246402335812</v>
+      </c>
+      <c r="CB105">
+        <v>0.78905166163230311</v>
+      </c>
+      <c r="CC105">
+        <v>0.79408533856814911</v>
+      </c>
+      <c r="CD105">
+        <v>0.77274063593647468</v>
+      </c>
+      <c r="CE105">
+        <v>0.77510773482965445</v>
+      </c>
+      <c r="CF105">
+        <v>0.72540304105518938</v>
+      </c>
+      <c r="CG105">
+        <v>0.75985654819789705</v>
+      </c>
+      <c r="CH105">
+        <v>0.78316181786046635</v>
+      </c>
+      <c r="CI105">
+        <v>0.7423414383285023</v>
+      </c>
+      <c r="CJ105">
+        <v>0.80066871605426859</v>
+      </c>
+      <c r="CK105">
+        <v>0.71070130379661478</v>
+      </c>
+      <c r="CL105">
+        <v>0.73368049890041254</v>
+      </c>
+      <c r="CM105">
         <v>0.75262003936851096</v>
       </c>
     </row>
@@ -861,24 +1480,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
